--- a/usik_vankova_U2/test.xlsx
+++ b/usik_vankova_U2/test.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Světlana\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18F15E6-673D-415A-A501-51EF215DEB95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="28830" windowHeight="15630" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="28830" windowHeight="15630" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Jarvis Scan" sheetId="1" r:id="rId1"/>
@@ -18,8 +12,8 @@
     <sheet name="Sweep Line" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -52,11 +46,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,7 +226,7 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -248,21 +242,11 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="cs-CZ"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -287,16 +271,14 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="cs-CZ"/>
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -405,24 +387,16 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E4B0-4150-8EA8-F935AE613AA0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="396097928"/>
-        <c:axId val="396095632"/>
-        <c:extLst>
+        <c:dLbls/>
+        <c:axId val="143954688"/>
+        <c:axId val="143956608"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
@@ -686,11 +660,10 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="396097928"/>
+        <c:axId val="143954688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -745,7 +718,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -753,30 +726,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -808,19 +760,18 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396095632"/>
+        <c:crossAx val="143956608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="396095632"/>
+        <c:axId val="143956608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -863,7 +814,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -871,30 +822,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -926,10 +856,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396097928"/>
+        <c:crossAx val="143954688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -943,7 +873,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -968,13 +898,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="cs-CZ"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -998,33 +927,23 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="cs-CZ"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="cs-CZ"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1049,19 +968,17 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="cs-CZ"/>
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="0"/>
           <c:tx>
             <c:v>grid</c:v>
           </c:tx>
@@ -1091,7 +1008,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Jarvis Scan'!$B$16:$K$16</c:f>
+              <c:f>'Sweep Line'!$B$16:$K$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1126,12 +1043,11 @@
                   <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Quick Hull'!$B$27:$K$27</c:f>
+              <c:f>'Sweep Line'!$B$27:$K$27</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1139,53 +1055,45 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.5</c:v>
+                  <c:v>6.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.9</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.4</c:v>
+                  <c:v>32.1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>57.9</c:v>
+                  <c:v>61.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0E9B-4E62-B694-B37E374E8CD3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="396097928"/>
-        <c:axId val="396095632"/>
-        <c:extLst>
+        <c:dLbls/>
+        <c:axId val="145511168"/>
+        <c:axId val="145513088"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
@@ -1449,11 +1357,10 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="396097928"/>
+        <c:axId val="145511168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1508,7 +1415,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1516,30 +1423,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1571,19 +1457,18 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396095632"/>
+        <c:crossAx val="145513088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="396095632"/>
+        <c:axId val="145513088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1626,7 +1511,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1634,30 +1519,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1689,10 +1553,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396097928"/>
+        <c:crossAx val="145511168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1706,7 +1570,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1731,13 +1595,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="cs-CZ"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1761,33 +1624,23 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="cs-CZ"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="cs-CZ"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1812,19 +1665,17 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="cs-CZ"/>
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="0"/>
           <c:tx>
             <c:v>circle</c:v>
           </c:tx>
@@ -1854,7 +1705,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Jarvis Scan'!$B$31:$K$31</c:f>
+              <c:f>'Sweep Line'!$B$31:$K$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1889,7 +1740,6 @@
                   <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
@@ -1931,24 +1781,16 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5E65-41AD-867D-5D625C60D61D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="396097928"/>
-        <c:axId val="396095632"/>
-        <c:extLst>
+        <c:dLbls/>
+        <c:axId val="147008896"/>
+        <c:axId val="147031552"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
@@ -2212,11 +2054,10 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="396097928"/>
+        <c:axId val="147008896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2271,7 +2112,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2279,30 +2120,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2334,19 +2154,18 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396095632"/>
+        <c:crossAx val="147031552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="396095632"/>
+        <c:axId val="147031552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2389,7 +2208,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2397,30 +2216,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2452,10 +2250,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396097928"/>
+        <c:crossAx val="147008896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2469,7 +2267,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2494,13 +2292,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="cs-CZ"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2524,30 +2321,20 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="cs-CZ"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="cs-CZ"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2576,7 +2363,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2584,33 +2371,11 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2643,7 +2408,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Quick Hull'!$B$1:$K$1</c:f>
+              <c:f>'Sweep Line'!$B$1:$K$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2682,45 +2447,44 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Quick Hull'!$B$12:$K$12</c:f>
+              <c:f>'Sweep Line'!$B$12:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.3</c:v>
+                  <c:v>5.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.1</c:v>
+                  <c:v>11.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.7</c:v>
+                  <c:v>18.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.799999999999997</c:v>
+                  <c:v>36.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>73.7</c:v>
+                  <c:v>70.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>148.1</c:v>
+                  <c:v>141.19999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A6E0-4F98-BAFB-B2A1DDD7A354}"/>
             </c:ext>
@@ -2758,7 +2522,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Jarvis Scan'!$B$16:$K$16</c:f>
+              <c:f>'Sweep Line'!$B$16:$K$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2793,51 +2557,48 @@
                   <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Jarvis Scan'!$B$27:$K$27</c:f>
+              <c:f>'Sweep Line'!$B$27:$K$27</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.1</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.9</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.2</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70.5</c:v>
+                  <c:v>6.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>136.30000000000001</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>295.39999999999998</c:v>
+                  <c:v>32.1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>599.6</c:v>
+                  <c:v>61.7</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A6E0-4F98-BAFB-B2A1DDD7A354}"/>
             </c:ext>
@@ -2875,7 +2636,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Jarvis Scan'!$B$31:$K$31</c:f>
+              <c:f>'Sweep Line'!$B$31:$K$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2910,73 +2671,63 @@
                   <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Jarvis Scan'!$B$42:$K$42</c:f>
+              <c:f>'Sweep Line'!$B$42:$K$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>109.3</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>218.1</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>406.8</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>732.4</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1456.4</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2199.1</c:v>
+                  <c:v>5.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4425.7</c:v>
+                  <c:v>10.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8939</c:v>
+                  <c:v>21.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18372.8</c:v>
+                  <c:v>41.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A6E0-4F98-BAFB-B2A1DDD7A354}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="396097928"/>
-        <c:axId val="396095632"/>
-        <c:extLst/>
+        <c:dLbls/>
+        <c:axId val="148350464"/>
+        <c:axId val="148352384"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="396097928"/>
+        <c:axId val="148350464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3031,7 +2782,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3039,30 +2790,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3094,19 +2824,18 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396095632"/>
+        <c:crossAx val="148352384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="396095632"/>
+        <c:axId val="148352384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3149,7 +2878,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3157,30 +2886,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3212,10 +2920,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396097928"/>
+        <c:crossAx val="148350464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3229,7 +2937,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3254,13 +2962,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="cs-CZ"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3284,30 +2991,20 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="cs-CZ"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="cs-CZ"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3335,7 +3032,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3343,33 +3040,11 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3478,8 +3153,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F949-4B63-84B6-A1A7CC8752F1}"/>
             </c:ext>
@@ -3593,8 +3267,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F949-4B63-84B6-A1A7CC8752F1}"/>
             </c:ext>
@@ -3708,30 +3381,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-F949-4B63-84B6-A1A7CC8752F1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="396097928"/>
-        <c:axId val="396095632"/>
+        <c:dLbls/>
+        <c:axId val="143575680"/>
+        <c:axId val="144900864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="396097928"/>
+        <c:axId val="143575680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3774,7 +3438,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3782,30 +3446,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3837,19 +3480,18 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396095632"/>
+        <c:crossAx val="144900864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="396095632"/>
+        <c:axId val="144900864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3891,7 +3533,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3899,30 +3541,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3954,10 +3575,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396097928"/>
+        <c:crossAx val="143575680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3971,7 +3592,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3996,13 +3617,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="cs-CZ"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4026,33 +3646,23 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="cs-CZ"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="cs-CZ"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4077,19 +3687,17 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="cs-CZ"/>
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="0"/>
           <c:tx>
             <c:v>grid</c:v>
           </c:tx>
@@ -4195,24 +3803,16 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BB13-4A30-A572-14D14D809B4A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="396097928"/>
-        <c:axId val="396095632"/>
-        <c:extLst>
+        <c:dLbls/>
+        <c:axId val="144930304"/>
+        <c:axId val="144932224"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
@@ -4476,11 +4076,10 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="396097928"/>
+        <c:axId val="144930304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4539,7 +4138,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4547,30 +4146,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4602,19 +4180,18 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396095632"/>
+        <c:crossAx val="144932224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="396095632"/>
+        <c:axId val="144932224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4661,7 +4238,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4669,30 +4246,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4724,10 +4280,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396097928"/>
+        <c:crossAx val="144930304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4741,7 +4297,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4766,13 +4322,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="cs-CZ"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4796,33 +4351,23 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="cs-CZ"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="cs-CZ"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4847,19 +4392,17 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="cs-CZ"/>
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="0"/>
           <c:tx>
             <c:v>circle</c:v>
           </c:tx>
@@ -4965,24 +4508,16 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1E2A-4ECC-8B13-C37B9B5F1C19}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="396097928"/>
-        <c:axId val="396095632"/>
-        <c:extLst>
+        <c:dLbls/>
+        <c:axId val="145195392"/>
+        <c:axId val="145197312"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
@@ -5246,11 +4781,10 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="396097928"/>
+        <c:axId val="145195392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -5309,7 +4843,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -5317,30 +4851,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -5372,19 +4885,18 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396095632"/>
+        <c:crossAx val="145197312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="396095632"/>
+        <c:axId val="145197312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -5431,7 +4943,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -5439,30 +4951,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -5494,10 +4985,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396097928"/>
+        <c:crossAx val="145195392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5511,7 +5002,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5536,13 +5027,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="cs-CZ"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5566,33 +5056,23 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="cs-CZ"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="cs-CZ"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5617,16 +5097,14 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="cs-CZ"/>
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5735,24 +5213,16 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A8CF-42FC-BC71-8AC37A795F48}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="396097928"/>
-        <c:axId val="396095632"/>
-        <c:extLst>
+        <c:dLbls/>
+        <c:axId val="145018240"/>
+        <c:axId val="145229312"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
@@ -6016,11 +5486,10 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="396097928"/>
+        <c:axId val="145018240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -6075,7 +5544,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -6083,30 +5552,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -6138,19 +5586,18 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396095632"/>
+        <c:crossAx val="145229312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="396095632"/>
+        <c:axId val="145229312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -6193,7 +5640,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -6201,30 +5648,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -6256,10 +5682,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396097928"/>
+        <c:crossAx val="145018240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6273,7 +5699,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -6298,13 +5724,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="cs-CZ"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6328,33 +5753,23 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="cs-CZ"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="cs-CZ"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -6379,19 +5794,17 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="cs-CZ"/>
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="0"/>
           <c:tx>
             <c:v>grid</c:v>
           </c:tx>
@@ -6421,7 +5834,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Jarvis Scan'!$B$16:$K$16</c:f>
+              <c:f>'Quick Hull'!$B$16:$K$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6456,7 +5869,6 @@
                   <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
@@ -6498,24 +5910,16 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B6CD-4276-A3FB-FD9E4445A897}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="396097928"/>
-        <c:axId val="396095632"/>
-        <c:extLst>
+        <c:dLbls/>
+        <c:axId val="145258752"/>
+        <c:axId val="145293696"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
@@ -6779,11 +6183,10 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="396097928"/>
+        <c:axId val="145258752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -6838,7 +6241,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -6846,30 +6249,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -6901,19 +6283,18 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396095632"/>
+        <c:crossAx val="145293696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="396095632"/>
+        <c:axId val="145293696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -6956,7 +6337,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -6964,30 +6345,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -7019,10 +6379,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396097928"/>
+        <c:crossAx val="145258752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7036,7 +6396,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -7061,13 +6421,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="cs-CZ"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7091,33 +6450,23 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="cs-CZ"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="cs-CZ"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -7142,19 +6491,17 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="cs-CZ"/>
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="0"/>
           <c:tx>
             <c:v>circle</c:v>
           </c:tx>
@@ -7184,7 +6531,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Jarvis Scan'!$B$31:$K$31</c:f>
+              <c:f>'Quick Hull'!$B$31:$K$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -7219,7 +6566,6 @@
                   <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
@@ -7261,24 +6607,16 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9E43-42BE-B9EA-55BF050B63B1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="396097928"/>
-        <c:axId val="396095632"/>
-        <c:extLst>
+        <c:dLbls/>
+        <c:axId val="145319040"/>
+        <c:axId val="145320960"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
@@ -7542,11 +6880,10 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="396097928"/>
+        <c:axId val="145319040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -7601,7 +6938,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -7609,30 +6946,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -7664,19 +6980,18 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396095632"/>
+        <c:crossAx val="145320960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="396095632"/>
+        <c:axId val="145320960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -7719,7 +7034,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -7727,30 +7042,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -7782,10 +7076,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396097928"/>
+        <c:crossAx val="145319040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7799,7 +7093,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -7824,13 +7118,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="cs-CZ"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7854,30 +7147,20 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="cs-CZ"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="cs-CZ"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -7905,7 +7188,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -7913,33 +7196,11 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -8048,8 +7309,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CE6F-4CD4-BD12-3C398AF55BE0}"/>
             </c:ext>
@@ -8087,7 +7347,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Jarvis Scan'!$B$16:$K$16</c:f>
+              <c:f>'Quick Hull'!$B$16:$K$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -8122,7 +7382,6 @@
                   <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
@@ -8164,8 +7423,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CE6F-4CD4-BD12-3C398AF55BE0}"/>
             </c:ext>
@@ -8203,7 +7461,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Jarvis Scan'!$B$31:$K$31</c:f>
+              <c:f>'Quick Hull'!$B$31:$K$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -8238,14 +7496,13 @@
                   <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>'Quick Hull'!$B$42:$K$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.7</c:v>
@@ -8280,31 +7537,22 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-CE6F-4CD4-BD12-3C398AF55BE0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="396097928"/>
-        <c:axId val="396095632"/>
-        <c:extLst/>
+        <c:dLbls/>
+        <c:axId val="145398400"/>
+        <c:axId val="145408768"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="396097928"/>
+        <c:axId val="145398400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -8359,7 +7607,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -8367,30 +7615,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -8422,19 +7649,18 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396095632"/>
+        <c:crossAx val="145408768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="396095632"/>
+        <c:axId val="145408768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -8477,7 +7703,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -8485,30 +7711,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -8540,10 +7745,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396097928"/>
+        <c:crossAx val="145398400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8557,7 +7762,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -8582,13 +7787,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="cs-CZ"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8612,33 +7816,23 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="cs-CZ"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="cs-CZ"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -8663,16 +7857,14 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="cs-CZ"/>
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -8705,7 +7897,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Quick Hull'!$B$1:$K$1</c:f>
+              <c:f>'Sweep Line'!$B$1:$K$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -8744,61 +7936,53 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Quick Hull'!$B$12:$K$12</c:f>
+              <c:f>'Sweep Line'!$B$12:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.3</c:v>
+                  <c:v>5.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.1</c:v>
+                  <c:v>11.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.7</c:v>
+                  <c:v>18.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.799999999999997</c:v>
+                  <c:v>36.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>73.7</c:v>
+                  <c:v>70.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>148.1</c:v>
+                  <c:v>141.19999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-344D-45D4-A67A-68C0D27D99EB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="396097928"/>
-        <c:axId val="396095632"/>
-        <c:extLst>
+        <c:dLbls/>
+        <c:axId val="145487744"/>
+        <c:axId val="145494016"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
@@ -9062,11 +8246,10 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="396097928"/>
+        <c:axId val="145487744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -9121,7 +8304,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -9129,30 +8312,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -9184,19 +8346,18 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396095632"/>
+        <c:crossAx val="145494016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="396095632"/>
+        <c:axId val="145494016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -9239,7 +8400,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -9247,30 +8408,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -9302,10 +8442,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396097928"/>
+        <c:crossAx val="145487744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9319,7 +8459,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -9344,13 +8484,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="cs-CZ"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -9374,12 +8513,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="cs-CZ"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -16077,7 +15216,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16113,7 +15252,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16151,7 +15290,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16189,7 +15328,7 @@
         <xdr:cNvPr id="5" name="Диаграмма 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16232,7 +15371,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16270,7 +15409,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16308,7 +15447,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16346,7 +15485,7 @@
         <xdr:cNvPr id="5" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C0EDC5E-2F61-4AB7-AE0C-23720CD7C414}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C0EDC5E-2F61-4AB7-AE0C-23720CD7C414}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16389,7 +15528,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16427,7 +15566,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16465,7 +15604,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16503,7 +15642,7 @@
         <xdr:cNvPr id="5" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{973D0DCE-1BC3-4CBD-88CC-44289D8C5523}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{973D0DCE-1BC3-4CBD-88CC-44289D8C5523}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16569,7 +15708,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -16621,7 +15760,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -16815,26 +15954,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -16869,7 +16008,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="4"/>
       <c r="B2" s="2">
         <v>3</v>
@@ -16902,7 +16041,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="4"/>
       <c r="B3" s="2">
         <v>2</v>
@@ -16935,7 +16074,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="4"/>
       <c r="B4" s="2">
         <v>3</v>
@@ -16968,7 +16107,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="4"/>
       <c r="B5" s="2">
         <v>3</v>
@@ -17001,7 +16140,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="4"/>
       <c r="B6" s="2">
         <v>2</v>
@@ -17034,7 +16173,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="4"/>
       <c r="B7" s="2">
         <v>2</v>
@@ -17067,7 +16206,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="4"/>
       <c r="B8" s="2">
         <v>3</v>
@@ -17100,7 +16239,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="4"/>
       <c r="B9" s="2">
         <v>2</v>
@@ -17133,7 +16272,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="4"/>
       <c r="B10" s="2">
         <v>3</v>
@@ -17166,7 +16305,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="4"/>
       <c r="B11" s="2">
         <v>3</v>
@@ -17199,7 +16338,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="6" t="s">
         <v>3</v>
       </c>
@@ -17244,7 +16383,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -17257,7 +16396,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="12" t="s">
         <v>2</v>
       </c>
@@ -17292,7 +16431,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="4"/>
       <c r="B17" s="2">
         <v>1</v>
@@ -17325,7 +16464,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="4"/>
       <c r="B18" s="2">
         <v>1</v>
@@ -17358,7 +16497,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="4"/>
       <c r="B19" s="5">
         <v>0</v>
@@ -17391,7 +16530,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="4"/>
       <c r="B20" s="5">
         <v>1</v>
@@ -17424,7 +16563,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="4"/>
       <c r="B21" s="5">
         <v>1</v>
@@ -17457,7 +16596,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="4"/>
       <c r="B22" s="5">
         <v>0</v>
@@ -17490,7 +16629,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="4"/>
       <c r="B23" s="5">
         <v>1</v>
@@ -17523,7 +16662,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="4"/>
       <c r="B24" s="5">
         <v>0</v>
@@ -17556,7 +16695,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="4"/>
       <c r="B25" s="5">
         <v>0</v>
@@ -17589,7 +16728,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="4"/>
       <c r="B26" s="5">
         <v>0</v>
@@ -17622,7 +16761,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="15" t="s">
         <v>3</v>
       </c>
@@ -17667,7 +16806,7 @@
         <v>599.6</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -17680,7 +16819,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="17" t="s">
         <v>0</v>
       </c>
@@ -17715,7 +16854,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="4"/>
       <c r="B32" s="2">
         <v>18</v>
@@ -17748,7 +16887,7 @@
         <v>18523</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="4"/>
       <c r="B33" s="2">
         <v>20</v>
@@ -17781,7 +16920,7 @@
         <v>17615</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="4"/>
       <c r="B34" s="5">
         <v>18</v>
@@ -17814,7 +16953,7 @@
         <v>18149</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="4"/>
       <c r="B35" s="5">
         <v>19</v>
@@ -17847,7 +16986,7 @@
         <v>19654</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="4"/>
       <c r="B36" s="5">
         <v>18</v>
@@ -17880,7 +17019,7 @@
         <v>19077</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="4"/>
       <c r="B37" s="5">
         <v>21</v>
@@ -17913,7 +17052,7 @@
         <v>17864</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="4"/>
       <c r="B38" s="5">
         <v>20</v>
@@ -17946,7 +17085,7 @@
         <v>17936</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="4"/>
       <c r="B39" s="5">
         <v>18</v>
@@ -17979,7 +17118,7 @@
         <v>17727</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40" s="4"/>
       <c r="B40" s="5">
         <v>18</v>
@@ -18012,7 +17151,7 @@
         <v>17748</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41" s="4"/>
       <c r="B41" s="5">
         <v>20</v>
@@ -18045,7 +17184,7 @@
         <v>19435</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42" s="27" t="s">
         <v>3</v>
       </c>
@@ -18090,7 +17229,7 @@
         <v>18372.8</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -18111,16 +17250,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="V46" sqref="V46"/>
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -18155,7 +17294,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="4"/>
       <c r="B2" s="2">
         <v>1</v>
@@ -18188,7 +17327,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="4"/>
       <c r="B3" s="2">
         <v>0</v>
@@ -18221,7 +17360,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="4"/>
       <c r="B4" s="5">
         <v>0</v>
@@ -18254,7 +17393,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="4"/>
       <c r="B5" s="5">
         <v>0</v>
@@ -18287,7 +17426,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="4"/>
       <c r="B6" s="5">
         <v>0</v>
@@ -18320,7 +17459,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="4"/>
       <c r="B7" s="5">
         <v>1</v>
@@ -18353,7 +17492,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="4"/>
       <c r="B8" s="5">
         <v>0</v>
@@ -18386,7 +17525,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="4"/>
       <c r="B9" s="5">
         <v>0</v>
@@ -18419,7 +17558,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="4"/>
       <c r="B10" s="5">
         <v>0</v>
@@ -18452,7 +17591,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="4"/>
       <c r="B11" s="5">
         <v>0</v>
@@ -18485,7 +17624,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="6" t="s">
         <v>3</v>
       </c>
@@ -18530,7 +17669,7 @@
         <v>148.1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -18543,7 +17682,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="12" t="s">
         <v>2</v>
       </c>
@@ -18578,7 +17717,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="4"/>
       <c r="B17" s="2">
         <v>0</v>
@@ -18611,7 +17750,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="4"/>
       <c r="B18" s="2">
         <v>0</v>
@@ -18644,7 +17783,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="4"/>
       <c r="B19" s="5">
         <v>0</v>
@@ -18677,7 +17816,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="4"/>
       <c r="B20" s="5">
         <v>0</v>
@@ -18710,7 +17849,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="4"/>
       <c r="B21" s="5">
         <v>0</v>
@@ -18743,7 +17882,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="4"/>
       <c r="B22" s="5">
         <v>0</v>
@@ -18776,7 +17915,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="4"/>
       <c r="B23" s="5">
         <v>0</v>
@@ -18809,7 +17948,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="4"/>
       <c r="B24" s="5">
         <v>0</v>
@@ -18842,7 +17981,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="4"/>
       <c r="B25" s="5">
         <v>0</v>
@@ -18875,7 +18014,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="4"/>
       <c r="B26" s="5">
         <v>0</v>
@@ -18908,7 +18047,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="15" t="s">
         <v>3</v>
       </c>
@@ -18953,7 +18092,7 @@
         <v>57.9</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -18966,7 +18105,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="17" t="s">
         <v>0</v>
       </c>
@@ -19001,7 +18140,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="4"/>
       <c r="B32" s="2">
         <v>0</v>
@@ -19034,7 +18173,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="4"/>
       <c r="B33" s="2">
         <v>1</v>
@@ -19067,7 +18206,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="4"/>
       <c r="B34" s="5">
         <v>1</v>
@@ -19100,7 +18239,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="4"/>
       <c r="B35" s="5">
         <v>0</v>
@@ -19133,7 +18272,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="4"/>
       <c r="B36" s="5">
         <v>1</v>
@@ -19166,7 +18305,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="4"/>
       <c r="B37" s="5">
         <v>1</v>
@@ -19199,7 +18338,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="4"/>
       <c r="B38" s="5">
         <v>1</v>
@@ -19232,7 +18371,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="4"/>
       <c r="B39" s="5">
         <v>0</v>
@@ -19265,7 +18404,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40" s="4"/>
       <c r="B40" s="5">
         <v>1</v>
@@ -19298,7 +18437,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41" s="4"/>
       <c r="B41" s="5">
         <v>1</v>
@@ -19331,7 +18470,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42" s="17" t="s">
         <v>3</v>
       </c>
@@ -19376,7 +18515,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -19396,16 +18535,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AE42" sqref="AE42"/>
+      <selection activeCell="X48" sqref="X48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -19440,7 +18579,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="4"/>
       <c r="B2" s="2">
         <v>0</v>
@@ -19473,7 +18612,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="4"/>
       <c r="B3" s="2">
         <v>0</v>
@@ -19506,7 +18645,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="4"/>
       <c r="B4" s="2">
         <v>0</v>
@@ -19539,7 +18678,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="4"/>
       <c r="B5" s="2">
         <v>0</v>
@@ -19572,7 +18711,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="4"/>
       <c r="B6" s="2">
         <v>0</v>
@@ -19605,7 +18744,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="4"/>
       <c r="B7" s="2">
         <v>0</v>
@@ -19638,7 +18777,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="4"/>
       <c r="B8" s="2">
         <v>0</v>
@@ -19671,7 +18810,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="4"/>
       <c r="B9" s="2">
         <v>0</v>
@@ -19704,7 +18843,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="4"/>
       <c r="B10" s="2">
         <v>0</v>
@@ -19737,7 +18876,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="4"/>
       <c r="B11" s="2">
         <v>0</v>
@@ -19770,7 +18909,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="9" t="s">
         <v>3</v>
       </c>
@@ -19815,7 +18954,7 @@
         <v>141.19999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="12" t="s">
         <v>2</v>
       </c>
@@ -19850,7 +18989,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="4"/>
       <c r="B17" s="2">
         <v>0</v>
@@ -19883,7 +19022,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="4"/>
       <c r="B18" s="2">
         <v>0</v>
@@ -19916,7 +19055,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="4"/>
       <c r="B19" s="2">
         <v>0</v>
@@ -19949,7 +19088,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="4"/>
       <c r="B20" s="2">
         <v>0</v>
@@ -19982,7 +19121,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="4"/>
       <c r="B21" s="2">
         <v>0</v>
@@ -20015,7 +19154,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="4"/>
       <c r="B22" s="2">
         <v>0</v>
@@ -20048,7 +19187,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="4"/>
       <c r="B23" s="2">
         <v>0</v>
@@ -20081,7 +19220,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="4"/>
       <c r="B24" s="2">
         <v>0</v>
@@ -20114,7 +19253,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="4"/>
       <c r="B25" s="2">
         <v>0</v>
@@ -20147,7 +19286,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="4"/>
       <c r="B26" s="2">
         <v>0</v>
@@ -20180,7 +19319,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="15" t="s">
         <v>3</v>
       </c>
@@ -20225,7 +19364,7 @@
         <v>61.7</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -20238,7 +19377,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="17" t="s">
         <v>0</v>
       </c>
@@ -20273,7 +19412,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="4"/>
       <c r="B32" s="2">
         <v>0</v>
@@ -20306,7 +19445,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="4"/>
       <c r="B33" s="2">
         <v>0</v>
@@ -20339,7 +19478,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="4"/>
       <c r="B34" s="5">
         <v>0</v>
@@ -20372,7 +19511,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="4"/>
       <c r="B35" s="5">
         <v>0</v>
@@ -20405,7 +19544,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="4"/>
       <c r="B36" s="5">
         <v>1</v>
@@ -20438,7 +19577,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="4"/>
       <c r="B37" s="5">
         <v>0</v>
@@ -20471,7 +19610,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="4"/>
       <c r="B38" s="5">
         <v>0</v>
@@ -20504,7 +19643,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="4"/>
       <c r="B39" s="5">
         <v>0</v>
@@ -20537,7 +19676,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40" s="4"/>
       <c r="B40" s="5">
         <v>0</v>
@@ -20570,7 +19709,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41" s="4"/>
       <c r="B41" s="5">
         <v>0</v>
@@ -20603,7 +19742,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42" s="17" t="s">
         <v>3</v>
       </c>
